--- a/SOO_paramInfo/DP1000_room_SwiftVoce_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_SwiftVoce_NDBR50_curve2/paramInfo.xlsx
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
